--- a/data/trans_camb/P25_4-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P25_4-Urba-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,07</t>
+          <t>-1,05</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>-0,67</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>1,55</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0,88</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-0,14</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0,52</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 3,61</t>
+          <t>-3,49; 4,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 1,99</t>
+          <t>-4,74; 2,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 3,26</t>
+          <t>-4,36; 2,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 2,98</t>
+          <t>-1,28; 4,51</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 2,51</t>
+          <t>-2,15; 3,34</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 1,8</t>
+          <t>-1,4; 8,3</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-1,33; 3,25</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-2,1; 1,85</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-1,65; 4,14</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,36%</t>
+          <t>9,54%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-27,26%</t>
+          <t>-33,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>66,37%</t>
+          <t>-21,15%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>56,62%</t>
+          <t>87,62%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>26,06%</t>
+          <t>40,79%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>99,84%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>38,16%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-6,12%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>22,49%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-58,08; 156,27</t>
+          <t>-73,14; 387,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-72,72; 99,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-46,14; 356,1</t>
+          <t>-86,42; 286,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-53,42; 309,96</t>
+          <t>-70,11; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-34,36; 134,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-49,35; 100,11</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-46,93; 269,14</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-63,22; 158,18</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-58,87; 325,6</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,78</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,64</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>-0,55</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0,99</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0,69</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-0,18</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 3,22</t>
+          <t>-0,91; 4,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 1,7</t>
+          <t>-1,35; 3,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 4,24</t>
+          <t>-1,4; 3,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 6,54</t>
+          <t>-0,95; 3,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 3,01</t>
+          <t>-0,97; 3,41</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 3,47</t>
+          <t>-3,13; 0,0</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-0,34; 2,86</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-0,64; 2,65</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-1,24; 1,25</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>19,22%</t>
+          <t>182,45%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-30,11%</t>
+          <t>89,69%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>13,54%</t>
+          <t>29,18%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>54,79%</t>
+          <t>129,72%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>15,82%</t>
+          <t>134,09%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>15,51%</t>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>159,87%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>111,35%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-29,17%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-67,19; 285,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-83,58; 187,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-88,35; 327,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-78,18; 443,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-57,05; 174,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-60,56; 187,72</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,93</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,48</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-0,08</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-0,13</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-0,11</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,76; 4,92</t>
+          <t>-10,64; 5,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 6,99</t>
+          <t>-10,77; 5,33</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,5; 7,08</t>
+          <t>-10,77; 5,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,82; 2,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 4,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 3,46</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-4,9; 2,7</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-5,03; 2,56</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-5,0; 2,6</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-9,67%</t>
+          <t>-3,59%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>25,78%</t>
+          <t>-10,16%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>-10,05%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-57,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-3,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-14,93%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-6,14%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-9,87%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-8,27%</t>
         </is>
       </c>
     </row>
@@ -1047,12 +1243,27 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-85,21; 510,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-91,84; 272,73</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,72</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,58</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0,83</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0,2</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0,2</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 2,25</t>
+          <t>-1,67; 3,06</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 1,28</t>
+          <t>-2,35; 1,63</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 2,76</t>
+          <t>-2,43; 1,9</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 3,27</t>
+          <t>-0,55; 2,92</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 1,98</t>
+          <t>-0,97; 2,32</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 1,83</t>
+          <t>-0,99; 3,87</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-0,56; 2,26</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-1,12; 1,45</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-1,18; 1,93</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>7,09%</t>
+          <t>29,9%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-22,09%</t>
+          <t>-13,85%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>31,67%</t>
+          <t>-12,2%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>39,47%</t>
+          <t>98,45%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>18,3%</t>
+          <t>61,74%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>58,99%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>54,62%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>13,1%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>13,26%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-42,64; 98,16</t>
+          <t>-56,97; 236,79</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-59,22; 65,29</t>
+          <t>-72,04; 162,41</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-45,1; 179,51</t>
+          <t>-74,87; 194,71</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-40,35; 200,93</t>
+          <t>-56,48; 829,79</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-25,3; 94,02</t>
+          <t>-68,6; 645,97</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-37,6; 85,61</t>
+          <t>-86,43; 1749,92</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-32,56; 218,85</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-51,98; 164,38</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-57,53; 211,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
